--- a/public/FormatImport.xlsx
+++ b/public/FormatImport.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nexre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester8\Project Skripsi\simpus_laravel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C5418-BA1C-4479-A2E8-615E584CA039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD001B89-08E9-464D-A169-D01185BC6E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE82F529-7D3A-4D78-A6A7-3CAB6C9934B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE82F529-7D3A-4D78-A6A7-3CAB6C9934B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,46 +37,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Lansia risiko tinggi oleh tenaga kesehatan puskesmas</t>
+  </si>
+  <si>
+    <t>Kunjungan</t>
+  </si>
+  <si>
+    <t>Krasak</t>
+  </si>
+  <si>
+    <t>Ninik Sumarni, S.Tr.Keb.</t>
+  </si>
+  <si>
+    <t>Akhnu H, Amd. Kep</t>
+  </si>
+  <si>
+    <t>upaya_kesehatan</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
   <si>
     <t>kegiatan</t>
   </si>
   <si>
-    <t>upaya_kesehatan</t>
-  </si>
-  <si>
     <t>tanggal_mulai</t>
   </si>
   <si>
     <t>rincian_pelaksanaan</t>
   </si>
   <si>
+    <t>desa</t>
+  </si>
+  <si>
     <t>nama_pelaksana1</t>
   </si>
   <si>
     <t>nama_pelaksana2</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>pelaksana1</t>
-  </si>
-  <si>
-    <t>pelaksana2</t>
-  </si>
-  <si>
-    <t>desa</t>
-  </si>
-  <si>
-    <t>Pandansari</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +94,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -103,7 +134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,17 +163,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Realisasi Keuangan &amp; RPK 2014" xfId="1" xr:uid="{50681E4C-F9C0-4137-9DAF-748CAF61F74E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,345 +511,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F20A558-A0BA-4252-8894-83092021E050}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>TEXT(E2,"[$-id-ID]dddd")</f>
+        <v>Senin</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="5">
+        <v>45110</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="J2" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44927</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
+    <row r="8" spans="1:10" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{15733383-29B5-46F2-8E02-0CC6CBE6FA08}">
-      <formula1>",Krasak, Pandansari,Wonorejo,"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
